--- a/CaseStudy/Export/Gini.xlsx
+++ b/CaseStudy/Export/Gini.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Num_of_Miss</t>
+          <t>var1_AQ</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5210390196599163</v>
+        <v>0.5727011872597415</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04207803931983256</v>
+        <v>0.145402374519483</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05066458575195865</v>
+        <v>0.2181294455549964</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>var1_AQ</t>
+          <t>var2_AQ</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5723668111359927</v>
+        <v>0.6019384967152036</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1447336222719855</v>
+        <v>0.2038769934304072</v>
       </c>
       <c r="E3" t="n">
-        <v>0.216131640657654</v>
+        <v>0.2724769228310882</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>var2_AQ</t>
+          <t>var3_CL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.599457682073544</v>
+        <v>0.3621907499573116</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198915364147088</v>
+        <v>-0.2756185000853768</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2702367876860842</v>
+        <v>0.2665991927695521</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>var3_CL</t>
+          <t>var4_CL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3624326840247317</v>
+        <v>0.4375959994247463</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2751346319505366</v>
+        <v>-0.1248080011505075</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2605202031453806</v>
+        <v>0.1855061156362965</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>var4_CL</t>
+          <t>var5_LF</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4387029270192415</v>
+        <v>0.7664942710356191</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.122594145961517</v>
+        <v>0.5329885420712381</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1837021749370833</v>
+        <v>0.398622824656832</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>var5_LF</t>
+          <t>var6_LF</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7659180929045307</v>
+        <v>0.3641416735260873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5318361858090614</v>
+        <v>-0.2717166529478253</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3922914682188833</v>
+        <v>0.2358808295116246</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>var6_LF</t>
+          <t>var7_PE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3649597857245959</v>
+        <v>0.340672880445613</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2700804285508083</v>
+        <v>-0.318654239108774</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2358631334608418</v>
+        <v>0.2640057969092922</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>var7_PE</t>
+          <t>var8_PE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.342412639945718</v>
+        <v>0.4420002031084038</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.315174720108564</v>
+        <v>-0.1159995937831925</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2541300799716229</v>
+        <v>0.1135230710941481</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>var8_PE</t>
+          <t>var9_LF</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4406181943662906</v>
+        <v>0.6122283540652252</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187636112674189</v>
+        <v>0.2244567081304505</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1159016052034841</v>
+        <v>0.1777619804574852</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>var9_LF</t>
+          <t>var10_PE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6127544814258158</v>
+        <v>0.4471745811813593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2255089628516316</v>
+        <v>-0.1056508376372813</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1777519438913696</v>
+        <v>0.09517490763387815</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>var10_PE</t>
+          <t>var11_AQ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4426851327157588</v>
+        <v>0.550434867241982</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1146297345684824</v>
+        <v>0.100869734483964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1036451091351108</v>
+        <v>0.08485045054277351</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>var11_AQ</t>
+          <t>var12_PE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5419679672427612</v>
+        <v>0.5083799384362317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08393593448552239</v>
+        <v>0.0167598768724635</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07442523161027059</v>
+        <v>0.03331598504076239</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>var12_PE</t>
+          <t>var13_PE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5091855049270956</v>
+        <v>0.5985623147279608</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01837100985419116</v>
+        <v>0.1971246294559217</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03587398879945636</v>
+        <v>0.1621428385601172</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>var13_PE</t>
+          <t>var14_LF</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5927478414449697</v>
+        <v>0.7433148876214936</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1854956828899395</v>
+        <v>0.4866297752429871</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1492742440187679</v>
+        <v>0.3720510158655659</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>var14_LF</t>
+          <t>var15_PE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7418212881113837</v>
+        <v>0.419435889519065</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4836425762227674</v>
+        <v>-0.1611282209618701</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3665907277183941</v>
+        <v>0.1240118109253568</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>var15_PE</t>
+          <t>var16_AQ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4195134087863005</v>
+        <v>0.6369556136825336</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.160973182427399</v>
+        <v>0.2739112273650672</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1355119989128813</v>
+        <v>0.230893448512614</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>var16_AQ</t>
+          <t>var17_LF</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6320636460916621</v>
+        <v>0.4974239700403219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2641272921833242</v>
+        <v>-0.005152059919356189</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2232364729869125</v>
+        <v>0.03673568082451975</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>var17_LF</t>
+          <t>var18_CL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5003854173448502</v>
+        <v>0.355075220761535</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0007708346897004059</v>
+        <v>-0.2898495584769301</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03414558646627169</v>
+        <v>0.3032829739824474</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>var18_CL</t>
+          <t>var19_AQ</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3579281807099576</v>
+        <v>0.5666562031062908</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2841436385800848</v>
+        <v>0.1333124062125817</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2951841254274949</v>
+        <v>0.1208986265883691</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>var19_AQ</t>
+          <t>var20_AQ</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5672850732094865</v>
+        <v>0.5745045336885926</v>
       </c>
       <c r="D21" t="n">
-        <v>0.134570146418973</v>
+        <v>0.1490090673771851</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1105583222876081</v>
+        <v>0.1610565123381752</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>var20_AQ</t>
+          <t>var21_LF</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5730345729328867</v>
+        <v>0.4144731377250618</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1460691458657735</v>
+        <v>-0.1710537245498764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1573894680236985</v>
+        <v>0.1463476605754834</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>var21_LF</t>
+          <t>var22_AQ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4177865251440412</v>
+        <v>0.5309956233968732</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1644269497119175</v>
+        <v>0.06199124679374646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1420839688174456</v>
+        <v>0.0681772050830981</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>var22_AQ</t>
+          <t>var23_PE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5283244441492168</v>
+        <v>0.4903701129021246</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05664888829843351</v>
+        <v>-0.01925977419575087</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05704335175879593</v>
+        <v>0.04085806829645533</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>var23_PE</t>
+          <t>var24_LF</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4892340660598858</v>
+        <v>0.3293130723236275</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02153186788022832</v>
+        <v>-0.341373855352745</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03443321332153415</v>
+        <v>0.2887907007517256</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>var24_LF</t>
+          <t>var25_LF</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3412725652710249</v>
+        <v>0.53673858614629</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3174548694579502</v>
+        <v>0.07347717229258</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2489492309547244</v>
+        <v>0.06848833863268422</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>var25_LF</t>
+          <t>var26_LF</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5321171436302603</v>
+        <v>0.6556537363560477</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06423428726052061</v>
+        <v>0.3113074727120955</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06336229454918063</v>
+        <v>0.2485772177080418</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>var26_LF</t>
+          <t>Num_of_Miss</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.639271815433888</v>
+        <v>0.5210390196599163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278543630867776</v>
+        <v>0.04207803931983256</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2134426332991343</v>
+        <v>0.05066458575195865</v>
       </c>
     </row>
   </sheetData>
